--- a/Aller/rebo.xlsx
+++ b/Aller/rebo.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A93"/>
+  <dimension ref="A1:A98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1065,6 +1065,41 @@
         </is>
       </c>
     </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>le: 2023-08-17 13:38:34.738694</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Trajet: Tanger Ville - Tarifa</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Company: FRS</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>40,25 €</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>le: 2023-08-22 09:38:28.872118</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
